--- a/biology/Biochimie/Marie-Thérèse_Armentero/Marie-Thérèse_Armentero.xlsx
+++ b/biology/Biochimie/Marie-Thérèse_Armentero/Marie-Thérèse_Armentero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-Th%C3%A9r%C3%A8se_Armentero</t>
+          <t>Marie-Thérèse_Armentero</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Thérèse Fuzzati-Armentero, née le 13 novembre 1965[1], est une nageuse suisse d'origine espagnole, médaillée de bronze mondiale en 1986.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Thérèse Fuzzati-Armentero, née le 13 novembre 1965, est une nageuse suisse d'origine espagnole, médaillée de bronze mondiale en 1986.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-Th%C3%A9r%C3%A8se_Armentero</t>
+          <t>Marie-Thérèse_Armentero</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Thérèse Armentero commence la natation à Genève[2].
-Participant aux Jeux olympiques d'été de 1984, elle se qualifie pour le 100 m nage libre et le 4 × 100 m 4 nages. Sur la première course, elle termine 4e de sa série et ne passe au tour suivant[1] tandis que sur le 4 × 100 m 4 nages, elle atteint la finale et termine 6e avec ses compatriotes Eva Gysling, Patricia Brülhart et Carole Brook[3].
-En 1986, aux championnats du monde, elle termine 3e du 50 m nage libre derrière la Roumaine Tamara Costache et l'Allemande Kristin Otto[4]. L'année suivante, elle est médaillée d'argent sur le 50 m nage libre aux Universiade d'été de 1987[4].
-Aux Jeux de 1988, elle participe au 50 m et au 100 m nage libre, sans dépasser le stade des séries à chaque fois[1].
-Née d'un père physicien espagnol et d'une mère allemande, elle a d'abord la nationalité espagnole avant d'être naturalisée suisse à 14 ans[2]. Marie-Thérèse Armentero vit 15 ans à Pavie après sa carrière sportive avant de venir s'installer à Paris[2]. Biochimiste de formation, elle travaille en Italie dans un institut de neurologie et s'intéresse à la maladie de Parkinson[2]. En France, elle devient bénévole pour l'Association France Parkinson puis chargée de mission scientifique[2]. Elle est également membre du conseil d’administration du Cercle des Nageurs de Paris[2].
-En 2006, elle intègre le Hall of Fame de l'université de Toronto[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Thérèse Armentero commence la natation à Genève.
+Participant aux Jeux olympiques d'été de 1984, elle se qualifie pour le 100 m nage libre et le 4 × 100 m 4 nages. Sur la première course, elle termine 4e de sa série et ne passe au tour suivant tandis que sur le 4 × 100 m 4 nages, elle atteint la finale et termine 6e avec ses compatriotes Eva Gysling, Patricia Brülhart et Carole Brook.
+En 1986, aux championnats du monde, elle termine 3e du 50 m nage libre derrière la Roumaine Tamara Costache et l'Allemande Kristin Otto. L'année suivante, elle est médaillée d'argent sur le 50 m nage libre aux Universiade d'été de 1987.
+Aux Jeux de 1988, elle participe au 50 m et au 100 m nage libre, sans dépasser le stade des séries à chaque fois.
+Née d'un père physicien espagnol et d'une mère allemande, elle a d'abord la nationalité espagnole avant d'être naturalisée suisse à 14 ans. Marie-Thérèse Armentero vit 15 ans à Pavie après sa carrière sportive avant de venir s'installer à Paris. Biochimiste de formation, elle travaille en Italie dans un institut de neurologie et s'intéresse à la maladie de Parkinson. En France, elle devient bénévole pour l'Association France Parkinson puis chargée de mission scientifique. Elle est également membre du conseil d’administration du Cercle des Nageurs de Paris.
+En 2006, elle intègre le Hall of Fame de l'université de Toronto.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie-Th%C3%A9r%C3%A8se_Armentero</t>
+          <t>Marie-Thérèse_Armentero</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marie-Th%C3%A9r%C3%A8se_Armentero</t>
+          <t>Marie-Thérèse_Armentero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
